--- a/medicine/Psychotrope/Folletage/Folletage.xlsx
+++ b/medicine/Psychotrope/Folletage/Folletage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le folletage est une maladie physiologique de la vigne et d'autres végétaux. Ce type d'apoplexie est dû à un déséquilibre entre la quantité d'eau absorbée par les racines et la quantité d'eau évaporée par les feuilles entraînant le dessèchement des rameaux et des feuilles.
 </t>
@@ -511,7 +523,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le folletage peut survenir :
 lorsqu’un temps chaud et sec succède à une longue période humide
@@ -545,7 +559,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">S'il n'y a pas de remède contre le folletage on peut essayer de le prévenir en régularisant les conditions d'humidité du milieu par un drainage.
 On conseille d'arracher et de remplacer les ceps gravement atteints car ils reprennent difficilement leur vigueur.
@@ -577,7 +593,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pathologie végétale
  Portail de la vigne et du vin   Portail de l’agriculture et l’agronomie   Portail de la protection des cultures                   </t>
